--- a/Asset Management Monitoring/fund_type.xlsx
+++ b/Asset Management Monitoring/fund_type.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C867"/>
+  <dimension ref="A1:C872"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,7 +640,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Balance Fund</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -708,7 +708,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -725,7 +725,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Money Market Fund</t>
+          <t>Thai Equity Fund</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -759,7 +759,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -827,7 +827,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Thai Equity Fund</t>
+          <t>Index Fund</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -980,7 +980,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Thai Equity Fund</t>
+          <t>Index Fund</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1082,7 +1082,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1116,7 +1116,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>KFGPROP</t>
+          <t>KFGPROP-A</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1660,7 +1660,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Thai Equity Fund</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1830,7 +1830,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Money Market Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Thai Equity Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2102,7 +2102,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Thai Equity Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2170,7 +2170,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2204,7 +2204,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Thai Equity Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2702,46 +2702,46 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>A1057869596371075</t>
+          <t>A1055639489926811</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Thai ESGX</t>
+          <t>B-Thai ESGX</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>A1055639489926811</t>
+          <t>A1062452495912785</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>B-Thai ESGX</t>
+          <t>SCBEUEQA</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>A1060887862735915</t>
+          <t>A1068306468664059</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Thai ESGX</t>
+          <t>MPINFRA-UI</t>
         </is>
       </c>
     </row>
@@ -2753,29 +2753,29 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>A1062452495912785</t>
+          <t>A1061610549329705</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>SCBEUEQA</t>
+          <t>B-US2000P</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>A1068306468664059</t>
+          <t>A1067201848771183</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>MPINFRA-UI</t>
+          <t>SCBCTECH</t>
         </is>
       </c>
     </row>
@@ -2787,19 +2787,19 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>A1061610549329705</t>
+          <t>A1067201848771183</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>B-US2000P</t>
+          <t>SCBCEH</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Thai Equity Fund</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2809,58 +2809,58 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SCBCTECH</t>
+          <t>SCBCHEQA</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>A1067201848771183</t>
+          <t>A1073604134800959</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>SCBCEH</t>
+          <t>ThaiESGX</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Thai Equity Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>A1067201848771183</t>
+          <t>A1073362201488481</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SCBCHEQA</t>
+          <t>SCBUSAA</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>A1073604134800959</t>
+          <t>A1073362201488481</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>ThaiESGX</t>
+          <t>SCBDIGI</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SCBUSAA</t>
+          <t>SCBNDQ(A)</t>
         </is>
       </c>
     </row>
@@ -2894,41 +2894,41 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SCBDIGI</t>
+          <t>SCBS&amp;P500A</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>A1073362201488481</t>
+          <t>A1078685627626143</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SCBNDQ(A)</t>
+          <t>MUSPIN</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Index Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>A1073362201488481</t>
+          <t>A1078931300934909</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SCBS&amp;P500A</t>
+          <t>MUSPIN</t>
         </is>
       </c>
     </row>
@@ -2940,12 +2940,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>A1078685627626143</t>
+          <t>A1100347712132892</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>MUSPIN</t>
+          <t>K-GSELECT</t>
         </is>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>A1078931300934909</t>
+          <t>A1080491594112213</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -2969,24 +2969,24 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Thai Equity Fund</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>A1100347712132892</t>
+          <t>A1080491594112213</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>K-GSELECT</t>
+          <t>M-VI</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2996,14 +2996,14 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>MUSPIN</t>
+          <t>MHEALTH</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Thai Equity Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>M-VI</t>
+          <t>MUBOND</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>MHEALTH</t>
+          <t>IGOLD</t>
         </is>
       </c>
     </row>
@@ -3042,53 +3042,53 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>A1080491594112213</t>
+          <t>A1081428307351875</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>MUBOND</t>
+          <t>MUSPIN</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Thai Equity Fund</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>A1080491594112213</t>
+          <t>A1080885787402789</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>IGOLD</t>
+          <t>SCBLEQ</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Term Fund</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>A1081428307351875</t>
+          <t>A1080885787402789</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>MUSPIN</t>
+          <t>SCBNK225D</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Thai Equity Fund</t>
+          <t>SSF Fund</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3098,14 +3098,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>SCBLEQ</t>
+          <t>SCBPGF(SSF)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Term Fund</t>
+          <t>SSF Fund</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3115,41 +3115,41 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SCBNK225D</t>
+          <t>SCBPGF(SSFE)</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SSF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>A1080885787402789</t>
+          <t>A689417530144078</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SCBPGF(SSF)</t>
+          <t>KF-EMXCN</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SSF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>A1080885787402789</t>
+          <t>A1090506513107383</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>SCBPGF(SSFE)</t>
+          <t>SCBCHAA</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3161,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>A689417530144078</t>
+          <t>A1090506513107383</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>KF-EMXCN</t>
+          <t>SCBCEH</t>
         </is>
       </c>
     </row>
@@ -3183,48 +3183,48 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>SCBCHAA</t>
+          <t>SCBSEMI</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>A1090506513107383</t>
+          <t>A1098720575622648</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SCBCEH</t>
+          <t>MUSPIN-H</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>A1090506513107383</t>
+          <t>A1098720575622648</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>SCBSEMI</t>
+          <t>MUSPIN-UH</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>MUSPIN-H</t>
+          <t>M-USEQH</t>
         </is>
       </c>
     </row>
@@ -3251,14 +3251,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>MUSPIN-UH</t>
+          <t>M-USEQUH</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Money Market Fund</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -3268,41 +3268,41 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>M-USEQH</t>
+          <t>MGF</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>A1098720575622648</t>
+          <t>A1122532826581047</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>M-USEQUH</t>
+          <t>K-HDThaiESGX</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>A1098720575622648</t>
+          <t>A1122532826581047</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>MGF</t>
+          <t>K-70ThaiESGX</t>
         </is>
       </c>
     </row>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>A1122532826581047</t>
+          <t>A1122713713229625</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>A1122532826581047</t>
+          <t>A1122713713229625</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3348,12 +3348,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>A1122713713229625</t>
+          <t>A1101865241974848</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>K-HDThaiESGX</t>
+          <t>MEQUITY-Thai ESGX</t>
         </is>
       </c>
     </row>
@@ -3365,12 +3365,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>A1122713713229625</t>
+          <t>A1101865241974848</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>K-70ThaiESGX</t>
+          <t>HIDIV-Thai ESGX</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>MEQUITY-Thai ESGX</t>
+          <t>MIX-Thai ESGX</t>
         </is>
       </c>
     </row>
@@ -3404,58 +3404,58 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>HIDIV-Thai ESGX</t>
+          <t>MIF-Thai ESGX</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Money Market Fund</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>A1101865241974848</t>
+          <t>A611689501250215</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>MIX-Thai ESGX</t>
+          <t>KFCASH-A</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>A1101865241974848</t>
+          <t>A611689501250215</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>MIF-Thai ESGX</t>
+          <t>KFCASHRMF</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Money Market Fund</t>
+          <t>Balance Fund</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>A611689501250215</t>
+          <t>A1002985085192252</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>KFCASH-A</t>
+          <t>B-SIP</t>
         </is>
       </c>
     </row>
@@ -3467,53 +3467,53 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>A611689501250215</t>
+          <t>A1002985085192252</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>KFCASHRMF</t>
+          <t>B-SIPRMF</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Balance Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>A1002985085192252</t>
+          <t>A1003056241851803</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>B-SIP</t>
+          <t>BMAPS25</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>SSF Fund</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>A1002985085192252</t>
+          <t>A1003056241851803</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>B-SIPRMF</t>
+          <t>BMAPS55</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Thai Equity Fund</t>
+          <t>Index Fund</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3523,14 +3523,14 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>BMAPS25</t>
+          <t>BMAPS100</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SSF Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -3540,14 +3540,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>BMAPS55</t>
+          <t>BMAPS25RMF</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Index Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>BMAPS100</t>
+          <t>BMAPS55RMF</t>
         </is>
       </c>
     </row>
@@ -3574,24 +3574,24 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>BMAPS25RMF</t>
+          <t>BMAPS100RMF</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>A1003056241851803</t>
+          <t>A1011557557672284</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>BMAPS55RMF</t>
+          <t>MBTCETF-UI</t>
         </is>
       </c>
     </row>
@@ -3603,29 +3603,29 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>A1003056241851803</t>
+          <t>A612536147832217</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>BMAPS100RMF</t>
+          <t>KFUSINDFXRMF</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>A1011557557672284</t>
+          <t>A612536147832217</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>MBTCETF-UI</t>
+          <t>KFNDQRMF</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>KFUSINDFXRMF</t>
+          <t>KFEMXCNRMF</t>
         </is>
       </c>
     </row>
@@ -3659,24 +3659,24 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>KFNDQRMF</t>
+          <t>KFWINDXRMF</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>A612536147832217</t>
+          <t>A1005924401564987</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>KFEMXCNRMF</t>
+          <t>bchineeq</t>
         </is>
       </c>
     </row>
@@ -3688,12 +3688,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>A612536147832217</t>
+          <t>A1005924401564987</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>KFWINDXRMF</t>
+          <t>BCHINAARMF</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>bchineeq</t>
+          <t>BUSALPHA</t>
         </is>
       </c>
     </row>
@@ -3727,14 +3727,14 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>BCHINAARMF</t>
+          <t>busalpharmf</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -3744,14 +3744,14 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>BUSALPHA</t>
+          <t>buspassive</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -3761,14 +3761,14 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>busalpharmf</t>
+          <t>BNIPPON</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>Index Fund</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -3778,14 +3778,14 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>buspassive</t>
+          <t>bjppassive</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -3795,14 +3795,14 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>BNIPPON</t>
+          <t>Basia</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Index Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -3812,99 +3812,99 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>bjppassive</t>
+          <t>BASIARMF</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>A1005924401564987</t>
+          <t>A1015121743982532</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Basia</t>
+          <t>MUSPIN-H</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>A1005924401564987</t>
+          <t>A1015121743982532</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>BASIARMF</t>
+          <t>MUSPIN-UH</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Thai Equity Fund</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>A1015121743982532</t>
+          <t>A615492734203225</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>MUSPIN-H</t>
+          <t>KF-SMCAPD</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>A1015121743982532</t>
+          <t>A1007255328098561</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>MUSPIN-UH</t>
+          <t>BKD</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Thai Equity Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>A615492734203225</t>
+          <t>A1007255328098561</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>KF-SMCAPD</t>
+          <t>B-EQ-THAIESG</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>BKD</t>
+          <t>B-TOP-THAIESG</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>B-EQ-THAIESG</t>
+          <t>B-MIXED-THAIESG</t>
         </is>
       </c>
     </row>
@@ -3948,48 +3948,48 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>B-TOP-THAIESG</t>
+          <t>B-SI-THAIESG</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>A1007255328098561</t>
+          <t>A1008673327957369</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>B-MIXED-THAIESG</t>
+          <t>SCBNDQ</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>SSF Fund</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>A1007255328098561</t>
+          <t>A1008673327957369</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>B-SI-THAIESG</t>
+          <t>SCBNDQ(SSF)</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -3999,48 +3999,48 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SCBNDQ</t>
+          <t>SCBRMNDQ</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>SSF Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>A1008673327957369</t>
+          <t>A1007944934696267</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>SCBNDQ(SSF)</t>
+          <t>B-DYNAMIC BOND</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>A1008673327957369</t>
+          <t>A1007944934696267</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>SCBRMNDQ</t>
+          <t>B-GLOBAL</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -4050,7 +4050,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>B-DYNAMIC BOND</t>
+          <t>B-USALPHA</t>
         </is>
       </c>
     </row>
@@ -4067,14 +4067,14 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>B-GLOBAL</t>
+          <t>B-INNOTECH</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -4084,14 +4084,14 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>B-USALPHA</t>
+          <t>B-DYNAMICRMF</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>B-INNOTECH</t>
+          <t>B-GLOBALRMF</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>B-DYNAMICRMF</t>
+          <t>B-USALPHARMF</t>
         </is>
       </c>
     </row>
@@ -4135,14 +4135,14 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>B-GLOBALRMF</t>
+          <t>B-INNOTECHRMF</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -4152,14 +4152,14 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>B-USALPHARMF</t>
+          <t>B-EQ-THAIESG</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>B-INNOTECHRMF</t>
+          <t>B-TOP-THAIESG</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>B-EQ-THAIESG</t>
+          <t>B-MIXED-THAIESG</t>
         </is>
       </c>
     </row>
@@ -4203,160 +4203,160 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>B-TOP-THAIESG</t>
+          <t>B-SI-THAIESG</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>A1007944934696267</t>
+          <t>A1016384327189607</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>B-MIXED-THAIESG</t>
+          <t>MUSPIN-H</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>A1007944934696267</t>
+          <t>A1016384327189607</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>B-SI-THAIESG</t>
+          <t>MUSPIN-UH</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>LTF Fund</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>A1016384327189607</t>
+          <t>A616946574057841</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>MUSPIN-H</t>
+          <t>KFLTFDNM-D</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>LTF Fund</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>A1016384327189607</t>
+          <t>A616946574057841</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>MUSPIN-UH</t>
+          <t>KFLTF50</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>LTF Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>A616946574057841</t>
+          <t>A1017095537118486</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>KFLTFDNM-D</t>
+          <t>MUSPIN-H</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>LTF Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>A616946574057841</t>
+          <t>A1017095537118486</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>KFLTF50</t>
+          <t>MUSPIN-UH</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Term Fund</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>A1017095537118486</t>
+          <t>A1012860057538696</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>MUSPIN-H</t>
+          <t>SCBCR1YU</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>A1017095537118486</t>
+          <t>A1037305901770407</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>MUSPIN-UH</t>
+          <t>K-ESGSI-ThaiESG</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Term Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>A1012860057538696</t>
+          <t>A1037305901770407</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>SCBCR1YU</t>
+          <t>K-TNZ-ThaiESG</t>
         </is>
       </c>
     </row>
@@ -4373,75 +4373,75 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>K-ESGSI-ThaiESG</t>
+          <t>K-BL30-ThaiESG</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>A1037305901770407</t>
+          <t>A1038017115032619</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>K-TNZ-ThaiESG</t>
+          <t>K-GOLD-A(D)</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>A1037305901770407</t>
+          <t>A1038017115032619</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>K-BL30-ThaiESG</t>
+          <t>K-JP-A(D)</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Term Fund</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>A1038017115032619</t>
+          <t>A1013673657457336</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>K-GOLD-A(D)</t>
+          <t>SCBCR1YU</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Term Fund</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>A1038017115032619</t>
+          <t>A1013673657457336</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>K-JP-A(D)</t>
+          <t>SCBCR1YT</t>
         </is>
       </c>
     </row>
@@ -4458,41 +4458,41 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>SCBCR1YU</t>
+          <t>SCBCR1YV</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Term Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>A1013673657457336</t>
+          <t>A1139237591545194</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>SCBCR1YT</t>
+          <t>ES-ULTIMATE GA1</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Term Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>A1013673657457336</t>
+          <t>A1139237591545194</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>SCBCR1YV</t>
+          <t>ES-ULTIMATE GA2</t>
         </is>
       </c>
     </row>
@@ -4509,143 +4509,143 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>ES-ULTIMATE GA1</t>
+          <t>ES-ULTIMATE GA3</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>Money Market Fund</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>A1139237591545194</t>
+          <t>A620135080405657</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>ES-ULTIMATE GA2</t>
+          <t>KFCASH-A</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>A1139237591545194</t>
+          <t>A620135080405657</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>ES-ULTIMATE GA3</t>
+          <t>KFCASHRMF</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Money Market Fund</t>
+          <t>Term Fund</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>A620135080405657</t>
+          <t>A1014233387401363</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>KFCASH-A</t>
+          <t>SCBCR1YV</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>A620135080405657</t>
+          <t>A1012057177618376</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>KFCASHRMF</t>
+          <t>B-PREMIUM</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Term Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>A1014233387401363</t>
+          <t>A1012057177618376</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>SCBCR1YV</t>
+          <t>B-GTO</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Term Fund</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>A1012057177618376</t>
+          <t>A1139339838201636</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>B-PREMIUM</t>
+          <t>ES-GOVCP6M33</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>A1012057177618376</t>
+          <t>A1012087970948630</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>B-GTO</t>
+          <t>B-GLOBAL</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Term Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>A1139339838201636</t>
+          <t>A1012087970948630</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>ES-GOVCP6M33</t>
+          <t>B-USALPHA</t>
         </is>
       </c>
     </row>
@@ -4662,14 +4662,14 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>B-GLOBAL</t>
+          <t>B-INNOTECH</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>B-USALPHA</t>
+          <t>B-DYNAMIC BOND</t>
         </is>
       </c>
     </row>
@@ -4691,63 +4691,63 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>A1012087970948630</t>
+          <t>A1014531150704920</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>B-INNOTECH</t>
+          <t>SCBSEMI</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Term Fund</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>A1012087970948630</t>
+          <t>A1040164134817917</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>B-DYNAMIC BOND</t>
+          <t>K-FGB6MG(USD)</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>A1014531150704920</t>
+          <t>A1040219594812371</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>SCBSEMI</t>
+          <t>K-ESGSI-ThaiESG</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Term Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>A1040164134817917</t>
+          <t>A1040219594812371</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>K-FGB6MG(USD)</t>
+          <t>K-BL30-ThaiESG</t>
         </is>
       </c>
     </row>
@@ -4764,14 +4764,14 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>K-ESGSI-ThaiESG</t>
+          <t>K-TNZ-ThaiESG</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -4781,14 +4781,14 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>K-BL30-ThaiESG</t>
+          <t>K-USA-RMF</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>K-TNZ-ThaiESG</t>
+          <t>K-WPBAL-RMF</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>K-USA-RMF</t>
+          <t>K-WPSPEED-RMF</t>
         </is>
       </c>
     </row>
@@ -4832,48 +4832,48 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>K-WPBAL-RMF</t>
+          <t>K-WPULTI-RMF</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>A1040219594812371</t>
+          <t>A1017696323721736</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>K-WPSPEED-RMF</t>
+          <t>SCBUSAA</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>A1040219594812371</t>
+          <t>A1017696323721736</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>K-WPULTI-RMF</t>
+          <t>SCBDIGI</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -4883,41 +4883,41 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>SCBUSAA</t>
+          <t>SCBROBOA</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>A1017696323721736</t>
+          <t>A623739730045192</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>SCBDIGI</t>
+          <t>KFGTECH</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>A1017696323721736</t>
+          <t>A623739730045192</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>SCBROBOA</t>
+          <t>KF-HCHINAD</t>
         </is>
       </c>
     </row>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>KFGTECH</t>
+          <t>KFHASIA</t>
         </is>
       </c>
     </row>
@@ -4951,14 +4951,14 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>KF-HCHINAD</t>
+          <t>KF-EM</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -4968,14 +4968,14 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>KFHASIA</t>
+          <t>KFFUTUREGEN</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -4985,75 +4985,75 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>KF-EM</t>
+          <t>KFESG</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>A623739730045192</t>
+          <t>A1024617643032942</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>KFFUTUREGEN</t>
+          <t>MUSPIN-H</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>A623739730045192</t>
+          <t>A1024617643032942</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>KFESG</t>
+          <t>MUSPIN-UH</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>A1024617643032942</t>
+          <t>A1043168034517527</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>MUSPIN-H</t>
+          <t>K-WPBAL-RMF</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>A1024617643032942</t>
+          <t>A1043168034517527</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>MUSPIN-UH</t>
+          <t>K-ESGSI-ThaiESG</t>
         </is>
       </c>
     </row>
@@ -5070,14 +5070,14 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>K-WPBAL-RMF</t>
+          <t>K-GSELECT-RMF</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -5087,48 +5087,48 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>K-ESGSI-ThaiESG</t>
+          <t>K-PROPI-RMF</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>A1043168034517527</t>
+          <t>A1016254217198672</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>K-GSELECT-RMF</t>
+          <t>B-DYNAMIC BOND</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>A1043168034517527</t>
+          <t>A1016254217198672</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>K-PROPI-RMF</t>
+          <t>B-GLOBAL</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -5138,7 +5138,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>B-DYNAMIC BOND</t>
+          <t>B-USALPHA</t>
         </is>
       </c>
     </row>
@@ -5155,14 +5155,14 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>B-GLOBAL</t>
+          <t>B-INNOTECH</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -5172,14 +5172,14 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>B-USALPHA</t>
+          <t>B-DYNAMICRMF</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>B-INNOTECH</t>
+          <t>B-GLOBALRMF</t>
         </is>
       </c>
     </row>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>B-DYNAMICRMF</t>
+          <t>B-USALPHARMF</t>
         </is>
       </c>
     </row>
@@ -5223,14 +5223,14 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>B-GLOBALRMF</t>
+          <t>B-INNOTECHRMF</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -5240,14 +5240,14 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>B-USALPHARMF</t>
+          <t>B-EQ-THAIESG</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>B-INNOTECHRMF</t>
+          <t>B-TOP-THAIESG</t>
         </is>
       </c>
     </row>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>B-EQ-THAIESG</t>
+          <t>B-MIXED-THAIESG</t>
         </is>
       </c>
     </row>
@@ -5291,41 +5291,41 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>B-TOP-THAIESG</t>
+          <t>B-SI-THAIESG</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>A1016254217198672</t>
+          <t>A1016394863851274</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>B-MIXED-THAIESG</t>
+          <t>B-GLOBAL</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>A1016254217198672</t>
+          <t>A1016394863851274</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>B-SI-THAIESG</t>
+          <t>B-NIPPON</t>
         </is>
       </c>
     </row>
@@ -5337,87 +5337,87 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>A1016394863851274</t>
+          <t>A1017126850444742</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>B-GLOBAL</t>
+          <t>B-CHINE-EQ</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>A1016394863851274</t>
+          <t>A1017126850444742</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>B-NIPPON</t>
+          <t>B-CHINAARMF</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Term Fund</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>A1017126850444742</t>
+          <t>A1019207820237253</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>B-CHINE-EQ</t>
+          <t>SCBUSHY</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>A1017126850444742</t>
+          <t>A1017734717050622</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>B-CHINAARMF</t>
+          <t>BMAPS25</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Term Fund</t>
+          <t>SSF Fund</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>A1019207820237253</t>
+          <t>A1017734717050622</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>SCBUSHY</t>
+          <t>BMAPS55</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Index Fund</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -5427,14 +5427,14 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>BMAPS25</t>
+          <t>BMAPS100</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>SSF Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -5444,14 +5444,14 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>BMAPS55</t>
+          <t>BMAPS25RMF</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Index Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -5461,7 +5461,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>BMAPS100</t>
+          <t>BMAPS55RMF</t>
         </is>
       </c>
     </row>
@@ -5478,14 +5478,14 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>BMAPS25RMF</t>
+          <t>BMAPS100RMF</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -5495,14 +5495,14 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>BMAPS55RMF</t>
+          <t>B-GLOBAL</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -5512,14 +5512,14 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>BMAPS100RMF</t>
+          <t>B-INNOTECH</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -5529,82 +5529,82 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>B-GLOBAL</t>
+          <t>BKA</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>A1017734717050622</t>
+          <t>A1026094806218559</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>B-INNOTECH</t>
+          <t>MUSPIN-H</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>A1017734717050622</t>
+          <t>A1026094806218559</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>BKA</t>
+          <t>MUSPIN-UH</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>A1026094806218559</t>
+          <t>A1017917990365628</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>MUSPIN-H</t>
+          <t>B-INNOTECH</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>A1026094806218559</t>
+          <t>A1017917990365628</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>MUSPIN-UH</t>
+          <t>B-INNOTECHRMF</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>SSF Fund</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -5614,116 +5614,116 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>B-INNOTECH</t>
+          <t>B-INNOTECHSSF</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>A1017917990365628</t>
+          <t>A1018559553634805</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>B-INNOTECHRMF</t>
+          <t>B-BHARATA</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>SSF Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>A1017917990365628</t>
+          <t>A1018559553634805</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>B-INNOTECHSSF</t>
+          <t>B-INDIAMRMF</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Index Fund</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>A1018559553634805</t>
+          <t>A1020621886761905</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>B-BHARATA</t>
+          <t>B-JPPASSIVE</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>A1018559553634805</t>
+          <t>A1020621886761905</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>B-INDIAMRMF</t>
+          <t>B-NIPPON</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Index Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>A1020621886761905</t>
+          <t>A1020769740080453</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>B-JPPASSIVE</t>
+          <t>B-ST</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>A1020621886761905</t>
+          <t>A1020769740080453</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>B-NIPPON</t>
+          <t>B1/25</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -5733,41 +5733,41 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>B-ST</t>
+          <t>B-SI-THAIESG</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>A1020769740080453</t>
+          <t>A1149332070535746</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>B1/25</t>
+          <t>ES-GDIV-UH</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>A1020769740080453</t>
+          <t>A1149332070535746</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>B-SI-THAIESG</t>
+          <t>I49</t>
         </is>
       </c>
     </row>
@@ -5779,36 +5779,36 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>A1149332070535746</t>
+          <t>A1048263940674603</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>ES-GDIV-UH</t>
+          <t>K-USA</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>A1149332070535746</t>
+          <t>A1048263940674603</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>I49</t>
+          <t>K-GTECH</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -5818,41 +5818,41 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>K-USA</t>
+          <t>K-GSELECT</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>A1048263940674603</t>
+          <t>A1021503113340449</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>K-GTECH</t>
+          <t>BCARE</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>A1048263940674603</t>
+          <t>A1021503113340449</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>K-GSELECT</t>
+          <t>B-FINTECH</t>
         </is>
       </c>
     </row>
@@ -5869,14 +5869,14 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>BCARE</t>
+          <t>BFT</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -5886,14 +5886,14 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>B-FINTECH</t>
+          <t>bcare</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -5903,14 +5903,14 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>BFT</t>
+          <t>bcarermf</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -5920,7 +5920,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>bcarermf</t>
+          <t>bfintech</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>SSF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -6573,7 +6573,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Term Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -6590,7 +6590,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Index Fund</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -6641,7 +6641,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Index Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -7576,7 +7576,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Index Fund</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -7729,7 +7729,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Index Fund</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -7950,7 +7950,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Thai Equity Fund</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -8273,7 +8273,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>Thai Equity Fund</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -8341,7 +8341,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -8511,7 +8511,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -8783,7 +8783,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Thai Equity Fund</t>
+          <t>Index Fund</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -9021,7 +9021,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Index Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -9191,7 +9191,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -9922,34 +9922,34 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>A1190261936442759</t>
+          <t>A1190187123116907</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>ES-ALPHABONDS</t>
+          <t>NPU</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>A1190261936442759</t>
+          <t>A1190187123116907</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>I11</t>
+          <t>NPH</t>
         </is>
       </c>
     </row>
@@ -9966,24 +9966,24 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>I16</t>
+          <t>ES-ALPHABONDS</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>A1059785459512214</t>
+          <t>A1190261936442759</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>BGOLD</t>
+          <t>I11</t>
         </is>
       </c>
     </row>
@@ -9995,19 +9995,19 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>A1059785459512214</t>
+          <t>A1190261936442759</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>B-DYNAMIC BOND</t>
+          <t>I16</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -10017,14 +10017,14 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>B-NIPPON</t>
+          <t>BGOLD</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -10034,7 +10034,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>B-CHINE-EQ</t>
+          <t>B-DYNAMIC BOND</t>
         </is>
       </c>
     </row>
@@ -10046,29 +10046,29 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>A1059998326157594</t>
+          <t>A1059785459512214</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>B-INNOTECH</t>
+          <t>B-NIPPON</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>A1059998326157594</t>
+          <t>A1059785459512214</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>B-INNOTECHRMF</t>
+          <t>B-CHINE-EQ</t>
         </is>
       </c>
     </row>
@@ -10080,29 +10080,29 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>A1062762049215163</t>
+          <t>A1059998326157594</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>SCBGEAR</t>
+          <t>B-INNOTECH</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>A1191065986362354</t>
+          <t>A1059998326157594</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>ES-NDQPIN-UH</t>
+          <t>B-INNOTECHRMF</t>
         </is>
       </c>
     </row>
@@ -10114,12 +10114,12 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>A1191065986362354</t>
+          <t>A1062762049215163</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>ES-NDQPIN</t>
+          <t>SCBGEAR</t>
         </is>
       </c>
     </row>
@@ -10131,12 +10131,12 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>A664749685944196</t>
+          <t>A1191065986362354</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>KFHEALTH</t>
+          <t>ES-NDQPIN-UH</t>
         </is>
       </c>
     </row>
@@ -10148,19 +10148,19 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>A664749685944196</t>
+          <t>A1191065986362354</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>KFGBRAND</t>
+          <t>ES-NDQPIN</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -10170,14 +10170,14 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>KFGPROP</t>
+          <t>KFHEALTH</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -10187,14 +10187,14 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>KFINFRA</t>
+          <t>KFGBRAND</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -10204,14 +10204,14 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>KFHEUROPE</t>
+          <t>KFGPROP</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -10221,7 +10221,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>KFGDIV</t>
+          <t>KFINFRA</t>
         </is>
       </c>
     </row>
@@ -10238,7 +10238,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>KFCHINA</t>
+          <t>KFHEUROPE</t>
         </is>
       </c>
     </row>
@@ -10255,75 +10255,75 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>KFCMEGA</t>
+          <t>KFGDIV</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>A1060865406070886</t>
+          <t>A664749685944196</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>BCARE</t>
+          <t>KFCHINA</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>A1060865406070886</t>
+          <t>A664749685944196</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>BCARERMF</t>
+          <t>KFCMEGA</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>A1064154245742610</t>
+          <t>A1060865406070886</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>SCBCHAE</t>
+          <t>BCARE</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>A1089617689872561</t>
+          <t>A1060865406070886</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>K-FIXEDPLUS</t>
+          <t>BCARERMF</t>
         </is>
       </c>
     </row>
@@ -10335,12 +10335,12 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>A1064218622402839</t>
+          <t>A1064154245742610</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>SCBCEHE</t>
+          <t>SCBCHAE</t>
         </is>
       </c>
     </row>
@@ -10352,29 +10352,29 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>A667796685639496</t>
+          <t>A1089617689872561</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>KFTRB-A</t>
+          <t>K-FIXEDPLUS</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>A667796685639496</t>
+          <t>A1064218622402839</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>KF-CSINCOME</t>
+          <t>SCBCEHE</t>
         </is>
       </c>
     </row>
@@ -10391,7 +10391,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>KF-SINCOME</t>
+          <t>KFTRB-A</t>
         </is>
       </c>
     </row>
@@ -10408,7 +10408,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>KF-SINCOME-FX-A</t>
+          <t>KF-CSINCOME</t>
         </is>
       </c>
     </row>
@@ -10425,14 +10425,14 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>KF-SINCOME-FX-R</t>
+          <t>KF-SINCOME</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -10442,7 +10442,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>KFDIVERSE</t>
+          <t>KF-SINCOME-FX-A</t>
         </is>
       </c>
     </row>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>KFPREFER-A</t>
+          <t>KF-SINCOME-FX-R</t>
         </is>
       </c>
     </row>
@@ -10471,12 +10471,12 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>A1066526565505378</t>
+          <t>A667796685639496</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>SCBCTECHE</t>
+          <t>KFDIVERSE</t>
         </is>
       </c>
     </row>
@@ -10488,80 +10488,80 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>A1092741909560139</t>
+          <t>A667796685639496</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>K-GSELECT</t>
+          <t>KFPREFER-A</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>A1092741909560139</t>
+          <t>A1066526565505378</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>K-GSELECT-RMF</t>
+          <t>SCBCTECHE</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Money Market Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>A1067016562123045</t>
+          <t>A1092741909560139</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>SCBMLCA(E)</t>
+          <t>K-GSELECT</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>A1064916002332493</t>
+          <t>A1092741909560139</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>B-INNOTECH</t>
+          <t>K-GSELECT-RMF</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Money Market Fund</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>A1064916002332493</t>
+          <t>A1067016562123045</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>B-INNOTECHRMF</t>
+          <t>SCBMLCA(E)</t>
         </is>
       </c>
     </row>
@@ -10578,7 +10578,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>B-ASIATECH</t>
+          <t>B-INNOTECH</t>
         </is>
       </c>
     </row>
@@ -10595,14 +10595,14 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>B-ASIATECHRMF</t>
+          <t>B-INNOTECHRMF</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -10612,48 +10612,48 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>Thai ESGX</t>
+          <t>B-ASIATECH</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>A1093139512853712</t>
+          <t>A1064916002332493</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>K-GSELECT</t>
+          <t>B-ASIATECHRMF</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>A1093139512853712</t>
+          <t>A1064916002332493</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>K-GTECH</t>
+          <t>Thai ESGX</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -10663,14 +10663,14 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>K-USA</t>
+          <t>K-GSELECT</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -10680,48 +10680,48 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>K-FIXEDPLUS</t>
+          <t>K-GTECH</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>A1067285062096195</t>
+          <t>A1093139512853712</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>SCBDBOND(A)</t>
+          <t>K-USA</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>A1067285062096195</t>
+          <t>A1093139512853712</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>SCBCEH</t>
+          <t>K-FIXEDPLUS</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -10731,14 +10731,14 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>SCBUSAA</t>
+          <t>SCBDBOND(A)</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -10748,7 +10748,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>SCBGOLDH</t>
+          <t>SCBCEH</t>
         </is>
       </c>
     </row>
@@ -10765,7 +10765,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>SCBEUROPE(A)</t>
+          <t>SCBUSAA</t>
         </is>
       </c>
     </row>
@@ -10782,14 +10782,14 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>SCBAOA</t>
+          <t>SCBGOLDH</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>Balance Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -10799,48 +10799,48 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>SCBABS</t>
+          <t>SCBEUROPE(A)</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>A1196296202505999</t>
+          <t>A1067285062096195</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>ES-ALPHABONDS</t>
+          <t>SCBAOA</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Balance Fund</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>A1196296202505999</t>
+          <t>A1067285062096195</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>I16</t>
+          <t>SCBABS</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -10850,41 +10850,41 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>ES-HEALTHCARE</t>
+          <t>ES-ALPHABONDS</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>A1066026085554818</t>
+          <t>A1196296202505999</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>BGOLD</t>
+          <t>I16</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>A1066026085554818</t>
+          <t>A1196296202505999</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>B-DYNAMIC BOND</t>
+          <t>ES-HEALTHCARE</t>
         </is>
       </c>
     </row>
@@ -10901,7 +10901,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>B-FINTECH</t>
+          <t>BGOLD</t>
         </is>
       </c>
     </row>
@@ -10918,41 +10918,41 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>B-PREMIUM</t>
+          <t>B-DYNAMIC BOND</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>A1066096355547791</t>
+          <t>A1066026085554818</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>B-US2000P</t>
+          <t>B-FINTECH</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Index Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>A1068059985352036</t>
+          <t>A1066026085554818</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>SCBS&amp;P500A</t>
+          <t>B-PREMIUM</t>
         </is>
       </c>
     </row>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>A1068059985352036</t>
+          <t>A1066096355547791</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>SCBNDQ(A)</t>
+          <t>B-US2000P</t>
         </is>
       </c>
     </row>
@@ -10981,53 +10981,53 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>A1067804335377601</t>
+          <t>A1068059985352036</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>SCBGLOB</t>
+          <t>SCBS&amp;P500A</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>Balance Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>A1094974782670185</t>
+          <t>A1068059985352036</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>K-WPBALANCED</t>
+          <t>SCBNDQ(A)</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>A1094974782670185</t>
+          <t>A1067804335377601</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>K-WPSPEEDUP</t>
+          <t>SCBGLOB</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Balance Fund</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -11037,7 +11037,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>K-WPULTIMATE</t>
+          <t>K-WPBALANCED</t>
         </is>
       </c>
     </row>
@@ -11054,14 +11054,14 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>K-FIXEDPLUS</t>
+          <t>K-WPSPEEDUP</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -11071,14 +11071,14 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>K-GSELECT</t>
+          <t>K-WPULTIMATE</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -11088,58 +11088,58 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>K-PROPI</t>
+          <t>K-FIXEDPLUS</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>Money Market Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>A1095648932602770</t>
+          <t>A1094974782670185</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>K-SF</t>
+          <t>K-GSELECT</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>A1095925785908418</t>
+          <t>A1094974782670185</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>K-ESGSI-ThaiESG</t>
+          <t>K-PROPI</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Money Market Fund</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>A1095925785908418</t>
+          <t>A1095648932602770</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>K-BL30-ThaiESG</t>
+          <t>K-SF</t>
         </is>
       </c>
     </row>
@@ -11156,14 +11156,14 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>K-TNZ-ThaiESG</t>
+          <t>K-ESGSI-ThaiESG</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -11173,41 +11173,41 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>K-WealthPLUS RMF Series</t>
+          <t>K-BL30-ThaiESG</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>A672868128465685</t>
+          <t>A1095925785908418</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>KFGDIV-D</t>
+          <t>K-TNZ-ThaiESG</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>A1098524548981875</t>
+          <t>A1095925785908418</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>K-USA</t>
+          <t>K-WealthPLUS RMF Series</t>
         </is>
       </c>
     </row>
@@ -11219,63 +11219,63 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>A1071369575020469</t>
+          <t>A672868128465685</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>B-BHARATA</t>
+          <t>KFGDIV-D</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>A1071369575020469</t>
+          <t>A1098524548981875</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>B-INDIAMRMF</t>
+          <t>K-USA</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>Index Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>A1073190824838952</t>
+          <t>A1071369575020469</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>SCBS&amp;P500</t>
+          <t>B-BHARATA</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>A1073190824838952</t>
+          <t>A1071369575020469</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>SCBS&amp;P500(A)</t>
+          <t>B-INDIAMRMF</t>
         </is>
       </c>
     </row>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>SCBS&amp;P500E</t>
+          <t>SCBS&amp;P500</t>
         </is>
       </c>
     </row>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>SCBRMS&amp;P500</t>
+          <t>SCBS&amp;P500(A)</t>
         </is>
       </c>
     </row>
@@ -11321,29 +11321,29 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>A673674045051760</t>
+          <t>A1073190824838952</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>KFGDIV-A</t>
+          <t>SCBS&amp;P500E</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>A1202711955197757</t>
+          <t>A1073190824838952</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>ES-ALPHABONDS</t>
+          <t>SCBRMS&amp;P500</t>
         </is>
       </c>
     </row>
@@ -11355,12 +11355,12 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>A1202711955197757</t>
+          <t>A673674045051760</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>ES-HEALTHCARE</t>
+          <t>KFGDIV-A</t>
         </is>
       </c>
     </row>
@@ -11377,7 +11377,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>TB7</t>
+          <t>ES-ALPHABONDS</t>
         </is>
       </c>
     </row>
@@ -11389,29 +11389,29 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>A1074040714753963</t>
+          <t>A1202711955197757</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>SCBGMCORE(A)</t>
+          <t>ES-HEALTHCARE</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>A1072405998250160</t>
+          <t>A1202711955197757</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>B-GLOBAL</t>
+          <t>TB7</t>
         </is>
       </c>
     </row>
@@ -11423,165 +11423,165 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>A1072405998250160</t>
+          <t>A1074040714753963</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>B-ASEAN</t>
+          <t>SCBGMCORE(A)</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>A674438148308683</t>
+          <t>A1072405998250160</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>KFINFRA-A</t>
+          <t>B-GLOBAL</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>A674438148308683</t>
+          <t>A1072405998250160</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>KFINFRARMF</t>
+          <t>B-ASEAN</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>A1074135968077771</t>
+          <t>A674438148308683</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>SCBDBOND</t>
+          <t>KFINFRA-A</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>Term Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>A1074912158000152</t>
+          <t>A674438148308683</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>SCBFLOAT1YB</t>
+          <t>KFINFRARMF</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>A1205129958289290</t>
+          <t>A1074135968077771</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>EGA</t>
+          <t>SCBDBOND</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>Money Market Fund</t>
+          <t>Term Fund</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>A1102547645246232</t>
+          <t>A1074912158000152</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>K-SFPLUS</t>
+          <t>SCBFLOAT1YB</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>A1075992604558774</t>
+          <t>A1073518488138911</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>SCBUSAA</t>
+          <t>Thai ESGX</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>Thai Equity Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>A1076582191166482</t>
+          <t>A1205129958289290</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>SCBCHEQA</t>
+          <t>EGA</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>Term Fund</t>
+          <t>Money Market Fund</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>A1209030324565920</t>
+          <t>A1102547645246232</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>ES-GOVCP6M40</t>
+          <t>K-SFPLUS</t>
         </is>
       </c>
     </row>
@@ -11593,80 +11593,80 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>A1077967901027303</t>
+          <t>A1075992604558774</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>B-CHINE-EQ</t>
+          <t>SCBUSAA</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Thai Equity Fund</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>A1077967901027303</t>
+          <t>A1076582191166482</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>B-CHINAARMF</t>
+          <t>SCBCHEQA</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Term Fund</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>A1078025394354887</t>
+          <t>A1209030324565920</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>B-BHARATA</t>
+          <t>ES-GOVCP6M40</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>A1078025394354887</t>
+          <t>A1077967901027303</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>B-INDIAMRMF</t>
+          <t>B-CHINE-EQ</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>A1085111363650236</t>
+          <t>A1077967901027303</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>MINDIA</t>
+          <t>B-CHINAARMF</t>
         </is>
       </c>
     </row>
@@ -11678,12 +11678,12 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>A1078108347679925</t>
+          <t>A1078025394354887</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>B-VIETNAM</t>
+          <t>B-BHARATA</t>
         </is>
       </c>
     </row>
@@ -11695,12 +11695,12 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>A1078108347679925</t>
+          <t>A1078025394354887</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>B-VIETNAMRMF</t>
+          <t>B-INDIAMRMF</t>
         </is>
       </c>
     </row>
@@ -11712,7 +11712,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>A1078108347679925</t>
+          <t>A1078025394354887</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -11724,17 +11724,17 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>A1078762104281216</t>
+          <t>A1085111363650236</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>B-ST</t>
+          <t>MINDIA</t>
         </is>
       </c>
     </row>
@@ -11746,29 +11746,29 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>A1078762104281216</t>
+          <t>A1078108347679925</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>B-GLOBAL</t>
+          <t>B-VIETNAM</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>A1078762104281216</t>
+          <t>A1078108347679925</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>B-INNOTECH</t>
+          <t>B-VIETNAMRMF</t>
         </is>
       </c>
     </row>
@@ -11785,14 +11785,14 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>B-DYNAMIC BOND</t>
+          <t>B-ST</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -11802,14 +11802,14 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>B-GLOBALRMF</t>
+          <t>B-GLOBAL</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -11819,14 +11819,14 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>B-INNOTECHRMF</t>
+          <t>B-INNOTECH</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -11836,14 +11836,14 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>B-DYNAMICRMF</t>
+          <t>B-DYNAMIC BOND</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -11853,92 +11853,92 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>Thai ESGX</t>
+          <t>B-GLOBALRMF</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>A1210151031120516</t>
+          <t>A1078762104281216</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>ES-GINFRA-A</t>
+          <t>B-INNOTECHRMF</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>A1210151031120516</t>
+          <t>A1078762104281216</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>ES-HEALTHCARE</t>
+          <t>B-DYNAMICRMF</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>A1210151031120516</t>
+          <t>A1078762104281216</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>ES-GOLD</t>
+          <t>Thai ESGX</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>A1107314731436190</t>
+          <t>A1210151031120516</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>K-FIXEDPLUS</t>
+          <t>ES-GINFRA-A</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>Money Market Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>A1107314731436190</t>
+          <t>A1210151031120516</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>K-SF</t>
+          <t>ES-HEALTHCARE</t>
         </is>
       </c>
     </row>
@@ -11950,87 +11950,87 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>A1079966737494694</t>
+          <t>A1210151031120516</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>SCBABS</t>
+          <t>ES-GOLD</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Term Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>A1080696200755081</t>
+          <t>A1107314731436190</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>SCBFLOAT1YC</t>
+          <t>K-FIXEDPLUS</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>Balance Fund</t>
+          <t>Money Market Fund</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>A1108149891352674</t>
+          <t>A1107314731436190</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>K-WPBALANCED</t>
+          <t>K-SF</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Balance Fund</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>A1108149891352674</t>
+          <t>A1079966737494694</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>K-WPSPEEDUP</t>
+          <t>SCBABS</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Term Fund</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>A1108149891352674</t>
+          <t>A1080696200755081</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>K-WPULTIMATE</t>
+          <t>SCBFLOAT1YC</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -12040,14 +12040,14 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>K-GSELECT</t>
+          <t>K-WealthPLUS Series</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Balance Fund</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -12057,14 +12057,14 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>K-GTECH</t>
+          <t>K-WPBALANCED</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -12074,75 +12074,75 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>K-USA</t>
+          <t>K-WPSPEEDUP</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>A1108634337970896</t>
+          <t>A1108149891352674</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>K-GOLD-A(D)</t>
+          <t>K-WPULTIMATE</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>A1108634337970896</t>
+          <t>A1108149891352674</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>K-JP-A(D)</t>
+          <t>K-GSELECT</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>A681161634303001</t>
+          <t>A1108149891352674</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>KF-GOLD</t>
+          <t>K-GTECH</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>A681161634303001</t>
+          <t>A1108149891352674</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>KF-HGOLD</t>
+          <t>K-USA</t>
         </is>
       </c>
     </row>
@@ -12154,46 +12154,46 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>A681161634303001</t>
+          <t>A1108634337970896</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>KFINFRA</t>
+          <t>K-GOLD-A(D)</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>A681161634303001</t>
+          <t>A1108634337970896</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>KF-CSINCOME</t>
+          <t>K-JP-A(D)</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>A1081735527317815</t>
+          <t>A681161634303001</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>SCBDBOND(A)</t>
+          <t>KF-GOLD</t>
         </is>
       </c>
     </row>
@@ -12205,53 +12205,53 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>A1081735527317815</t>
+          <t>A681161634303001</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>SCBABS</t>
+          <t>KF-HGOLD</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>A1081735527317815</t>
+          <t>A681161634303001</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>SCBUSAA</t>
+          <t>KFINFRA</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>A1081735527317815</t>
+          <t>A681161634303001</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>SCBAOA</t>
+          <t>KF-CSINCOME</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -12261,14 +12261,14 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>SCBCE</t>
+          <t>SCBDBOND(A)</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Balance Fund</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -12278,14 +12278,14 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>SCBFST</t>
+          <t>SCBABS</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -12295,14 +12295,14 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>SCBWIPA</t>
+          <t>SCBUSAA</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -12312,7 +12312,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>SCBPGF</t>
+          <t>SCBAOA</t>
         </is>
       </c>
     </row>
@@ -12329,14 +12329,14 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>SCBINDIA</t>
+          <t>SCBCE</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -12346,75 +12346,75 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>SCBGIF</t>
+          <t>SCBFST</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>A681438777608620</t>
+          <t>A1081735527317815</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>KFINFRA</t>
+          <t>SCBWIPA</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>A681438777608620</t>
+          <t>A1081735527317815</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>KFGPROP</t>
+          <t>SCBPGF</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>A1217549747047311</t>
+          <t>A1081735527317815</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>ES-GINFRA-A</t>
+          <t>SCBINDIA</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>A1217549747047311</t>
+          <t>A1081735527317815</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>ES-NDQPIN-UH</t>
+          <t>SCBGIF</t>
         </is>
       </c>
     </row>
@@ -12426,80 +12426,80 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>A1217549747047311</t>
+          <t>A681438777608620</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>ES-GOLD</t>
+          <t>KFINFRA</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>A1085572053600221</t>
+          <t>A681438777608620</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>B-GLOBAL</t>
+          <t>KFGPROP</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>A1085572053600221</t>
+          <t>A1217549747047311</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>B-INNOTECH</t>
+          <t>ES-GINFRA-A</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Thai Equity Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>A1085572053600221</t>
+          <t>A1217549747047311</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>BMAPS</t>
+          <t>ES-NDQPIN-UH</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>A1085572053600221</t>
+          <t>A1217549747047311</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>B-DYNAMIC BOND</t>
+          <t>ES-GOLD</t>
         </is>
       </c>
     </row>
@@ -12511,97 +12511,97 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>A1086653156826052</t>
+          <t>A1085572053600221</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>SCBUSAA</t>
+          <t>B-GLOBAL</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>A1086383910186310</t>
+          <t>A1085572053600221</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>SCBGOLD</t>
+          <t>B-INNOTECH</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Index Fund</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>A1087263203431714</t>
+          <t>A1085572053600221</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>SCBUSAA</t>
+          <t>BMAPS</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Thai Equity Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>A1087263203431714</t>
+          <t>A1085572053600221</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>SCBCHEQA</t>
+          <t>B-DYNAMIC BOND</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>Thai Equity Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>A1087354366755931</t>
+          <t>A1086653156826052</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>SCBCHEQA</t>
+          <t>SCBUSAA</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>A686683643750800</t>
+          <t>A1086383910186310</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>KFGTECH</t>
+          <t>SCBGOLD</t>
         </is>
       </c>
     </row>
@@ -12613,97 +12613,97 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>A686683643750800</t>
+          <t>A1087263203431714</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>KFHTECH</t>
+          <t>SCBUSAA</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Thai Equity Fund</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>A688660960219735</t>
+          <t>A1087263203431714</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>KF-EMXCN</t>
+          <t>SCBCHEQA</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Thai Equity Fund</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>A688815316870966</t>
+          <t>A1087354366755931</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>KF-EMXCN</t>
+          <t>SCBCHEQA</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>Balance Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>A1089428263214600</t>
+          <t>A686683643750800</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>B-SIP</t>
+          <t>KFGTECH</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>A1089428263214600</t>
+          <t>A686683643750800</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>B-GTO</t>
+          <t>KFHTECH</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>A1223437223125230</t>
+          <t>A688660960219735</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>ES-GINFRA-A</t>
+          <t>KF-EMXCN</t>
         </is>
       </c>
     </row>
@@ -12715,114 +12715,114 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>A1223437223125230</t>
+          <t>A688815316870966</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>ES-NDQPIN-UH</t>
+          <t>KF-EMXCN</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Balance Fund</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>A1223437223125230</t>
+          <t>A1089428263214600</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>ES-GOLD</t>
+          <t>B-SIP</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>Term Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>A1091084419716259</t>
+          <t>A1089428263214600</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>SCBFLOAT1YD</t>
+          <t>B-GTO</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>A1090080066482753</t>
+          <t>A1223437223125230</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>B-CHINE-EQ</t>
+          <t>ES-GINFRA-A</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>A1090080066482753</t>
+          <t>A1223437223125230</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>B-CHINAARMF</t>
+          <t>ES-NDQPIN-UH</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>A1090080066482753</t>
+          <t>A1223437223125230</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>THAI ESGX</t>
+          <t>ES-GOLD</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Term Fund</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>A1090213949802698</t>
+          <t>A1091084419716259</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>B-USALPHA</t>
+          <t>SCBFLOAT1YD</t>
         </is>
       </c>
     </row>
@@ -12834,12 +12834,12 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>A1090213949802698</t>
+          <t>A1090080066482753</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>B-USPASSIVE</t>
+          <t>B-CHINE-EQ</t>
         </is>
       </c>
     </row>
@@ -12851,12 +12851,12 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>A1090213949802698</t>
+          <t>A1090080066482753</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>B-USALPHARMF</t>
+          <t>B-CHINAARMF</t>
         </is>
       </c>
     </row>
@@ -12868,63 +12868,63 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>A1090213949802698</t>
+          <t>A1090080066482753</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>Thai ESGX</t>
+          <t>THAI ESGX</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>Thai Equity Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>A1091105909714110</t>
+          <t>A1090180929806000</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>SCBLEQA</t>
+          <t>Thai ESGX</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>LTF Fund</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>A1091105909714110</t>
+          <t>A1090180929806000</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>SCBRMLEQ</t>
+          <t>LTF</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>Term Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>A1119161606918169</t>
+          <t>A1090213949802698</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>K-FGB6MJ(USD)</t>
+          <t>B-USALPHA</t>
         </is>
       </c>
     </row>
@@ -12936,420 +12936,420 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>A1091954876295880</t>
+          <t>A1090213949802698</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>SCBCE</t>
+          <t>B-USPASSIVE</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>A1091954876295880</t>
+          <t>A1090213949802698</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>SCBCEH</t>
+          <t>B-USALPHARMF</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>A1091954876295880</t>
+          <t>A1090213949802698</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>SCBCEE</t>
+          <t>Thai ESGX</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Thai Equity Fund</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>A1091954876295880</t>
+          <t>A1091105909714110</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>SCBCEHE</t>
+          <t>SCBLEQA</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>A1091978746293493</t>
+          <t>A1091105909714110</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>SCBGQUAL</t>
+          <t>SCBRMLEQ</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Term Fund</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>A1090897343067692</t>
+          <t>A1119161606918169</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>MM-RMF</t>
+          <t>K-FGB6MJ(USD)</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>A1090897343067692</t>
+          <t>A1091954876295880</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>B-SI-ThaiESG</t>
+          <t>SCBCE</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>A1090897343067692</t>
+          <t>A1091954876295880</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>THAI ESGX</t>
+          <t>SCBCEH</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>A1090961059727987</t>
+          <t>A1091954876295880</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>B-PREMIUM</t>
+          <t>SCBCEE</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>A1090961059727987</t>
+          <t>A1091954876295880</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>B-PREMIUMRMF</t>
+          <t>SCBCEHE</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>A690979136654584</t>
+          <t>A1091978746293493</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>KF-CSINCOME</t>
+          <t>SCBGQUAL</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>A690979136654584</t>
+          <t>A1090897343067692</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>KF-SINCOME</t>
+          <t>MM-RMF</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>A690979136654584</t>
+          <t>A1090897343067692</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>KF-SINCOME-FX-A</t>
+          <t>B-SI-ThaiESG</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>A1091094343047992</t>
+          <t>A1090897343067692</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>B-NIPPON</t>
+          <t>THAI ESGX</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>Index Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>A1091094343047992</t>
+          <t>A1090961059727987</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>B-JPPASSIVE</t>
+          <t>B-PREMIUM</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>A1119461706888159</t>
+          <t>A1090961059727987</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>K-ESGSI-ThaiESG</t>
+          <t>B-PREMIUMRMF</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>A1119461706888159</t>
+          <t>A690979136654584</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>K-BL30-ThaiESG</t>
+          <t>KF-CSINCOME</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>A1119461706888159</t>
+          <t>A690979136654584</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>K-TNZ-ThaiESG</t>
+          <t>KF-SINCOME</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>A1119461706888159</t>
+          <t>A690979136654584</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>K-HDThaiESGX</t>
+          <t>KF-SINCOME-FX-A</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>A1119461706888159</t>
+          <t>A1091094343047992</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>K-70ThaiESGX</t>
+          <t>B-NIPPON</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Index Fund</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>A1091659002991526</t>
+          <t>A1091094343047992</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>B-BHARATA</t>
+          <t>B-JPPASSIVE</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>A1091659002991526</t>
+          <t>A1119461706888159</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>B-INDIAMRMF</t>
+          <t>K-ESGSI-ThaiESG</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>A1092748836216484</t>
+          <t>A1119461706888159</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>SCBCTECH</t>
+          <t>K-BL30-ThaiESG</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Index Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>A1092772686214099</t>
+          <t>A1119461706888159</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>SCBS&amp;P500</t>
+          <t>K-TNZ-ThaiESG</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>A1092772686214099</t>
+          <t>A1119461706888159</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>SCBUSA</t>
+          <t>K-HDThaiESGX</t>
         </is>
       </c>
     </row>
@@ -13361,80 +13361,80 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>A1120270150140648</t>
+          <t>A1119461706888159</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>K-HDThaiESGX-68</t>
+          <t>K-70ThaiESGX</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>A1120270150140648</t>
+          <t>A1091659002991526</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>K-70ThaiESGX-68</t>
+          <t>B-BHARATA</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>A1120270150140648</t>
+          <t>A1091659002991526</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>K-HDThaiESGX-L</t>
+          <t>B-INDIAMRMF</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>A1120270150140648</t>
+          <t>A1092748836216484</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>K-70ThaiESGX-L</t>
+          <t>SCBCTECH</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Index Fund</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>A1094227859401307</t>
+          <t>A1092772686214099</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>B-USALPHA</t>
+          <t>SCBS&amp;P500</t>
         </is>
       </c>
     </row>
@@ -13446,29 +13446,29 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>A1094227859401307</t>
+          <t>A1092772686214099</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>B-USPASSIVE</t>
+          <t>SCBUSA</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>A1094227859401307</t>
+          <t>A1120270150140648</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>B-USALPHARMF</t>
+          <t>K-HDThaiESGX-68</t>
         </is>
       </c>
     </row>
@@ -13480,29 +13480,29 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>A1094227859401307</t>
+          <t>A1120270150140648</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>Thai ESGX</t>
+          <t>K-70ThaiESGX-68</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Term Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>A1095947965896571</t>
+          <t>A1120270150140648</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>SCBFLOAT1YE</t>
+          <t>K-HDThaiESGX-L</t>
         </is>
       </c>
     </row>
@@ -13514,182 +13514,182 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>A1123948063106190</t>
+          <t>A1120270150140648</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>K-HDThaiESGX-68</t>
+          <t>K-70ThaiESGX-L</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>A1123948063106190</t>
+          <t>A1094227859401307</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>K-70ThaiESGX-68</t>
+          <t>B-USALPHA</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>A1230360845766201</t>
+          <t>A1094227859401307</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>ES-GINFRA-A</t>
+          <t>B-USPASSIVE</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>A1230360845766201</t>
+          <t>A1094227859401307</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>ES-NDQPIN-UH</t>
+          <t>B-USALPHARMF</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>A1230360845766201</t>
+          <t>A1094227859401307</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>ES-INDAE</t>
+          <t>Thai ESGX</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>Index Fund</t>
+          <t>Term Fund</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>A1008518471306188</t>
+          <t>A1095947965896571</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>SCBS&amp;P500</t>
+          <t>SCBFLOAT1YE</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>A1008518471306188</t>
+          <t>A1123948063106190</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>SCBNDQA</t>
+          <t>K-HDThaiESGX-68</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>A1040656621429044</t>
+          <t>A1123948063106190</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>M-EUBANK</t>
+          <t>K-70ThaiESGX-68</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>Money Market Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>A1085166526978053</t>
+          <t>A1230360845766201</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>MMGOVMF</t>
+          <t>ES-GINFRA-A</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Term Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>A1129630315839255</t>
+          <t>A1230360845766201</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>ES-GOVCP6M32</t>
+          <t>ES-NDQPIN-UH</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>A1011488877679152</t>
+          <t>A1230360845766201</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>MPCREDIT-UI</t>
+          <t>ES-INDAE</t>
         </is>
       </c>
     </row>
@@ -13701,7 +13701,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>A1008680087956693</t>
+          <t>A1008518471306188</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
@@ -13713,51 +13713,51 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>A1008680087956693</t>
+          <t>A1008518471306188</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>SCBNDQ</t>
+          <t>SCBNDQA</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>Index Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>A1008680087956693</t>
+          <t>A1040656621429044</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>SCBDJI</t>
+          <t>M-EUBANK</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>Thai Equity Fund</t>
+          <t>Money Market Fund</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>A1008680087956693</t>
+          <t>A1085166526978053</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>SCBRS2000</t>
+          <t>MMGOVMF</t>
         </is>
       </c>
     </row>
@@ -13769,182 +13769,182 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>A1009151057909596</t>
+          <t>A1129630315839255</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>SCBCR1YT</t>
+          <t>ES-GOVCP6M32</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>Term Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>A1010109251147110</t>
+          <t>A1011488877679152</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>SCBCR1YT</t>
+          <t>MPCREDIT-UI</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>Term Fund</t>
+          <t>Index Fund</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>A1010109251147110</t>
+          <t>A1008680087956693</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>SCBCR1YU</t>
+          <t>SCBS&amp;P500</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>Money Market Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>A620856320333533</t>
+          <t>A1008680087956693</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>KFSMART-A</t>
+          <t>SCBNDQ</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Index Fund</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>A620856320333533</t>
+          <t>A1008680087956693</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>KFAFIX-A</t>
+          <t>SCBDJI</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Index Fund</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>A1021514756672618</t>
+          <t>A1008680087956693</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>B-USPASSIVE</t>
+          <t>SCBRS2000</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Term Fund</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>A1021514756672618</t>
+          <t>A1009151057909596</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>B-USALPHA</t>
+          <t>SCBCR1YT</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Term Fund</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>A1021514756672618</t>
+          <t>A1010109251147110</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>B-USALPHARMF</t>
+          <t>SCBCR1YT</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Term Fund</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>A631061169313048</t>
+          <t>A1010109251147110</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>KF-US-PLUS</t>
+          <t>SCBCR1YU</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Money Market Fund</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>A635821295503702</t>
+          <t>A620856320333533</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>KFHHCARE</t>
+          <t>KFSMART-A</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>A635821295503702</t>
+          <t>A620856320333533</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>KFHEALTH</t>
+          <t>KFAFIX-A</t>
         </is>
       </c>
     </row>
@@ -13956,12 +13956,12 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>A642812254804606</t>
+          <t>A1021514756672618</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>KF-EUROPE</t>
+          <t>B-USPASSIVE</t>
         </is>
       </c>
     </row>
@@ -13973,12 +13973,12 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>A642812254804606</t>
+          <t>A1021514756672618</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>KFHEUROP-A</t>
+          <t>B-USALPHA</t>
         </is>
       </c>
     </row>
@@ -13990,80 +13990,80 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>A642812254804606</t>
+          <t>A1021514756672618</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>KFEURORMF</t>
+          <t>B-USALPHARMF</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>A1165975765538043</t>
+          <t>A631061169313048</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>ES-ALOVE-UH</t>
+          <t>KF-US-PLUS</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>Index Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>A1165975765538043</t>
+          <t>A635821295503702</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>I50</t>
+          <t>KFHHCARE</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>Balance Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>A1036872968470130</t>
+          <t>A635821295503702</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>B-SIP</t>
+          <t>KFHEALTH</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>A1036872968470130</t>
+          <t>A642812254804606</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>B-GTO</t>
+          <t>KF-EUROPE</t>
         </is>
       </c>
     </row>
@@ -14075,12 +14075,12 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>A1041368514687242</t>
+          <t>A642812254804606</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>B-GLOBAL</t>
+          <t>KFHEUROP-A</t>
         </is>
       </c>
     </row>
@@ -14092,87 +14092,87 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>A1041368514687242</t>
+          <t>A642812254804606</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>B-GLOBALRMF</t>
+          <t>KFEURORMF</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>A1041368514687242</t>
+          <t>A1165975765538043</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>B-BHARATA</t>
+          <t>ES-ALOVE-UH</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Index Fund</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>A1041368514687242</t>
+          <t>A1165975765538043</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>B-INDIAMRMF</t>
+          <t>I50</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Balance Fund</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>A1041368514687242</t>
+          <t>A1036872968470130</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>B-INNOTECH</t>
+          <t>B-SIP</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>A1041368514687242</t>
+          <t>A1036872968470130</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
         <is>
-          <t>B-ASIATECH</t>
+          <t>B-GTO</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -14182,7 +14182,7 @@
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>B-INNOTECHRMF</t>
+          <t>B-GLOBAL</t>
         </is>
       </c>
     </row>
@@ -14199,14 +14199,14 @@
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>B-ASIATECHRMF</t>
+          <t>B-GLOBALRMF</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -14216,7 +14216,7 @@
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>B-GTO</t>
+          <t>B-BHARATA</t>
         </is>
       </c>
     </row>
@@ -14233,14 +14233,14 @@
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>B-GTORMF</t>
+          <t>B-INDIAMRMF</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -14250,14 +14250,14 @@
       </c>
       <c r="C813" t="inlineStr">
         <is>
-          <t>B-FINTECH</t>
+          <t>B-INNOTECH</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
@@ -14267,7 +14267,7 @@
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>B-DYNAMIC BOND</t>
+          <t>B-ASIATECH</t>
         </is>
       </c>
     </row>
@@ -14284,58 +14284,58 @@
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>B-DYNAMICRMF</t>
+          <t>B-INNOTECHRMF</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>Term Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>A1044163431075025</t>
+          <t>A1041368514687242</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>SCBSBUSD6M1</t>
+          <t>B-ASIATECHRMF</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>Money Market Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>A648332227585942</t>
+          <t>A1041368514687242</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>KFCASH-A</t>
+          <t>B-GTO</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>A1051823223645717</t>
+          <t>A1041368514687242</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>METHETF-UI</t>
+          <t>B-GTORMF</t>
         </is>
       </c>
     </row>
@@ -14347,199 +14347,199 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>A653564763729355</t>
+          <t>A1041368514687242</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>KFGPROP-A</t>
+          <t>B-FINTECH</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>A1056913559800012</t>
+          <t>A1041368514687242</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>SCBCHIN</t>
+          <t>B-DYNAMIC BOND</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>A663354632750368</t>
+          <t>A1041368514687242</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>KF-EUROPE</t>
+          <t>B-DYNAMICRMF</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Term Fund</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>A663354632750368</t>
+          <t>A1044163431075025</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>KFHEUROP-A</t>
+          <t>SCBSBUSD6M1</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Money Market Fund</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>A663354632750368</t>
+          <t>A648332227585942</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>KFEURORMF</t>
+          <t>KFCASH-A</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>A665514999200998</t>
+          <t>A1051823223645717</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>KF-CSINCOME</t>
+          <t>METHETF-UI</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>A665514999200998</t>
+          <t>A653564763729355</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>KF-SINCOME-FX-A</t>
+          <t>KFGPROP-A</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>Term Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>A1066301288861239</t>
+          <t>A1056913559800012</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>SCBFLOAT1YA</t>
+          <t>SCBCHIN</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>Term Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>A1194592266009726</t>
+          <t>A663354632750368</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>ES-FF1Y1</t>
+          <t>KF-EUROPE</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>A1107817918052538</t>
+          <t>A663354632750368</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>K-FIXED</t>
+          <t>KFHEUROP-A</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>A1089251706565589</t>
+          <t>A663354632750368</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>B-GLOBAL</t>
+          <t>KFEURORMF</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>A1089251706565589</t>
+          <t>A665514999200998</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>B-INNOTECH</t>
+          <t>KF-CSINCOME</t>
         </is>
       </c>
     </row>
@@ -14551,97 +14551,97 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>A1089251706565589</t>
+          <t>A665514999200998</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>B-DYNAMIC BOND</t>
+          <t>KF-SINCOME-FX-A</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Term Fund</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>A1089251706565589</t>
+          <t>A1066301288861239</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>B-ST</t>
+          <t>SCBFLOAT1YA</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Term Fund</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>A1090001316490628</t>
+          <t>A1194592266009726</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>B-USALPHA</t>
+          <t>ES-FF1Y1</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>A1090001316490628</t>
+          <t>A1107817918052538</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>B-USPASSIVE</t>
+          <t>K-FIXED</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>A1090001316490628</t>
+          <t>A1089251706565589</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>B-USALPHARMF</t>
+          <t>B-GLOBAL</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>A1090001316490628</t>
+          <t>A1089251706565589</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>Thai ESGX</t>
+          <t>B-INNOTECH</t>
         </is>
       </c>
     </row>
@@ -14653,46 +14653,46 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>A1095389945952373</t>
+          <t>A1089251706565589</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>SCBDBOND</t>
+          <t>B-DYNAMIC BOND</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>A1095389945952373</t>
+          <t>A1089251706565589</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>SCBGOLD</t>
+          <t>B-ST</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>A1019707203523986</t>
+          <t>A1090001316490628</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t>MUSPIN-H</t>
+          <t>B-USALPHA</t>
         </is>
       </c>
     </row>
@@ -14704,63 +14704,63 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>A1019707203523986</t>
+          <t>A1090001316490628</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>MUSPIN-UH</t>
+          <t>B-USPASSIVE</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>A1025698826254211</t>
+          <t>A1090001316490628</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>B-GLOBAL</t>
+          <t>B-USALPHARMF</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>A1025698826254211</t>
+          <t>A1090001316490628</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>B-USALPHA</t>
+          <t>Thai ESGX</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>A1025698826254211</t>
+          <t>A1095389945952373</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>B-INNOTECH</t>
+          <t>SCBDBOND</t>
         </is>
       </c>
     </row>
@@ -14772,53 +14772,53 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>A1025698826254211</t>
+          <t>A1095389945952373</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>BGOLD</t>
+          <t>SCBGOLD</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>A1025698826254211</t>
+          <t>A1019707203523986</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>B-GLOBALRMF</t>
+          <t>MUSPIN-H</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>A1025698826254211</t>
+          <t>A1019707203523986</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>B-USALPHARMF</t>
+          <t>MUSPIN-UH</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
@@ -14828,14 +14828,14 @@
       </c>
       <c r="C847" t="inlineStr">
         <is>
-          <t>B-INNOTECHRMF</t>
+          <t>B-GLOBAL</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
@@ -14845,58 +14845,58 @@
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>BGOLDRMF</t>
+          <t>B-USALPHA</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>A1055517006605726</t>
+          <t>A1025698826254211</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>B-ST</t>
+          <t>B-INNOTECH</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Alternative Fund</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>A1224442409691378</t>
+          <t>A1025698826254211</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>ES-GQG-UH</t>
+          <t>BGOLD</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>A1090972133060213</t>
+          <t>A1025698826254211</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>B-CHINE-EQ</t>
+          <t>B-GLOBALRMF</t>
         </is>
       </c>
     </row>
@@ -14908,148 +14908,148 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>A1090972133060213</t>
+          <t>A1025698826254211</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>B-CHINAARMF</t>
+          <t>B-USALPHARMF</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>A1090972133060213</t>
+          <t>A1025698826254211</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>Thai ESGX</t>
+          <t>B-INNOTECHRMF</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>A1024025286425511</t>
+          <t>A1025698826254211</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>MUSPIN</t>
+          <t>BGOLDRMF</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>Alternative Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>A1024025286425511</t>
+          <t>A1055517006605726</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>JEPI</t>
+          <t>B-ST</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>Thai ESG Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>A1043773557780071</t>
+          <t>A1224442409691378</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>B-SI-THAIESG</t>
+          <t>ES-GQG-UH</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>A1043773557780071</t>
+          <t>A1090972133060213</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>B-ST</t>
+          <t>B-CHINE-EQ</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>RMF Fund</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>A1043773557780071</t>
+          <t>A1090972133060213</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>B2/25</t>
+          <t>B-CHINAARMF</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Fixed Income Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>A1064125865744840</t>
+          <t>A1090972133060213</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>3BBIF</t>
+          <t>Thai ESGX</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>A1064125865744840</t>
+          <t>A1024025286425511</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>B-INNOTECH</t>
+          <t>MUSPIN</t>
         </is>
       </c>
     </row>
@@ -15061,112 +15061,197 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>A1064125865744840</t>
+          <t>A1043773557780071</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>Thai ESGX</t>
+          <t>B-SI-THAIESG</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>A686509163768248</t>
+          <t>A1043773557780071</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>KF-EMXCN</t>
+          <t>B-ST</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Uncategorized</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>A639821175103714</t>
+          <t>A1043773557780071</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>KF-EUROPE</t>
+          <t>B2/25</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Fixed Income Fund</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>A639821175103714</t>
+          <t>A1064125865744840</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>KFHEUROP-A</t>
+          <t>3BBIF</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>RMF Fund</t>
+          <t>Foreign Equity Fund</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>A639821175103714</t>
+          <t>A1064125865744840</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>KFEURORMF</t>
+          <t>B-INNOTECH</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>Foreign Equity Fund</t>
+          <t>Thai ESG Fund</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>A1042966184527475</t>
+          <t>A1064125865744840</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>B-CHINE-EQ</t>
+          <t>Thai ESGX</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
+          <t>Foreign Equity Fund</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>A686509163768248</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>KF-EMXCN</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>Foreign Equity Fund</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>A639821175103714</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>KF-EUROPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>Foreign Equity Fund</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>A639821175103714</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>KFHEUROP-A</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>RMF Fund</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>A639821175103714</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>KFEURORMF</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>Foreign Equity Fund</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>A1042966184527475</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>B-CHINE-EQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
           <t>Fixed Income Fund</t>
         </is>
       </c>
-      <c r="B867" t="inlineStr">
+      <c r="B872" t="inlineStr">
         <is>
           <t>A1042966184527475</t>
         </is>
       </c>
-      <c r="C867" t="inlineStr">
+      <c r="C872" t="inlineStr">
         <is>
           <t>B-OPP</t>
         </is>
